--- a/公司文件/食品管理/菜单_外卖.xlsx
+++ b/公司文件/食品管理/菜单_外卖.xlsx
@@ -28,18 +28,18 @@
     <t>名称</t>
   </si>
   <si>
+    <t>规格</t>
+  </si>
+  <si>
+    <t>标识</t>
+  </si>
+  <si>
     <t>单位</t>
   </si>
   <si>
     <t>单价</t>
   </si>
   <si>
-    <t>标识</t>
-  </si>
-  <si>
-    <t>规格</t>
-  </si>
-  <si>
     <t>数量</t>
   </si>
   <si>
@@ -49,15 +49,15 @@
     <t>小油豆腐</t>
   </si>
   <si>
+    <t>5个</t>
+  </si>
+  <si>
+    <t>青菜</t>
+  </si>
+  <si>
     <t>份</t>
   </si>
   <si>
-    <t>青菜</t>
-  </si>
-  <si>
-    <t>5个</t>
-  </si>
-  <si>
     <t>黄瓜条</t>
   </si>
   <si>
@@ -361,10 +361,10 @@
     <t>乌冬面</t>
   </si>
   <si>
+    <t>1份1包</t>
+  </si>
+  <si>
     <t>粉面类</t>
-  </si>
-  <si>
-    <t>1份1包</t>
   </si>
   <si>
     <t>单独装6</t>
@@ -420,13 +420,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,32 +441,15 @@
     </font>
     <font>
       <b/>
-      <sz val="22"/>
+      <sz val="28"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -476,9 +459,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,14 +482,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -509,53 +491,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -576,6 +511,77 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -584,7 +590,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,7 +611,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,25 +629,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,60 +647,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -719,13 +659,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,7 +695,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,7 +719,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,13 +767,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -877,45 +883,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -927,26 +894,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -969,8 +916,67 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -982,10 +988,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -994,137 +1000,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1153,6 +1159,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1477,18 +1486,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.875" customWidth="1"/>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="5.875" customWidth="1"/>
-    <col min="6" max="6" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="5" max="5" width="5.875" customWidth="1"/>
     <col min="8" max="8" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1515,23 +1524,23 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="15"/>
-    <row r="4" s="1" customFormat="1" ht="52" customHeight="1" spans="1:8">
+    <row r="4" s="1" customFormat="1" ht="52" customHeight="1" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -1540,6 +1549,7 @@
       <c r="H4" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A5" s="7">
@@ -1551,14 +1561,14 @@
       <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="9">
         <v>2.5</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -1570,17 +1580,17 @@
       <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="C6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="9">
         <v>2.5</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -1592,17 +1602,17 @@
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="9">
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="9">
         <v>2.5</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -1614,17 +1624,17 @@
       <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="C8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="9">
         <v>2.5</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -1636,17 +1646,17 @@
       <c r="B9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="9">
+      <c r="C9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="9">
         <v>2.5</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -1658,17 +1668,17 @@
       <c r="B10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="9">
+      <c r="C10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="9">
         <v>2.5</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -1680,17 +1690,17 @@
       <c r="B11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="9">
+      <c r="C11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="9">
         <v>3</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -1702,17 +1712,17 @@
       <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="9">
+      <c r="C12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="9">
         <v>2.5</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -1724,17 +1734,17 @@
       <c r="B13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="9">
+      <c r="C13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="9">
         <v>2.5</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -1746,17 +1756,17 @@
       <c r="B14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="9">
+      <c r="C14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="9">
         <v>3</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -1768,17 +1778,17 @@
       <c r="B15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="9">
+      <c r="C15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="9">
         <v>2.5</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -1790,17 +1800,17 @@
       <c r="B16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="9">
+      <c r="C16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="9">
         <v>2.5</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -1812,17 +1822,17 @@
       <c r="B17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="9">
+      <c r="C17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="9">
         <v>3</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -1834,17 +1844,17 @@
       <c r="B18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="9">
+      <c r="C18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="9">
         <v>2</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -1856,17 +1866,17 @@
       <c r="B19" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="9">
+      <c r="C19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="9">
         <v>2</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -1878,17 +1888,17 @@
       <c r="B20" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="9">
+      <c r="C20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="9">
         <v>4</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -1900,17 +1910,17 @@
       <c r="B21" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="9">
+      <c r="C21" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="9">
         <v>4</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -1922,17 +1932,17 @@
       <c r="B22" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="9">
+      <c r="C22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="9">
         <v>2.5</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -1944,17 +1954,17 @@
       <c r="B23" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="9">
+      <c r="C23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="9">
         <v>2.5</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -1966,17 +1976,17 @@
       <c r="B24" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="9">
         <v>2.5</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -1988,17 +1998,17 @@
       <c r="B25" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="9">
+      <c r="C25" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="9">
         <v>3</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -2010,17 +2020,17 @@
       <c r="B26" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="9">
+      <c r="C26" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="9">
         <v>3</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -2032,17 +2042,17 @@
       <c r="B27" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="9">
+      <c r="C27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="9">
         <v>2.5</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -2054,17 +2064,17 @@
       <c r="B28" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="9">
+      <c r="C28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="9">
         <v>2.5</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -2076,17 +2086,17 @@
       <c r="B29" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="9">
+      <c r="C29" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="9">
         <v>2.5</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -2098,17 +2108,17 @@
       <c r="B30" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="9">
+      <c r="C30" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="9">
         <v>2.5</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -2120,17 +2130,17 @@
       <c r="B31" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="9">
+      <c r="C31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="9">
         <v>2.5</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
@@ -2142,17 +2152,17 @@
       <c r="B32" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="9">
+      <c r="C32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="9">
         <v>2.5</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
@@ -2164,17 +2174,17 @@
       <c r="B33" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="9">
+      <c r="C33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="9">
         <v>4</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
@@ -2186,17 +2196,17 @@
       <c r="B34" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="9">
+      <c r="C34" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="9">
         <v>4</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
@@ -2208,17 +2218,17 @@
       <c r="B35" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="9">
+      <c r="C35" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="9">
         <v>2.5</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -2231,16 +2241,16 @@
         <v>62</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="9">
+        <v>29</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="9">
         <v>4</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
@@ -2252,17 +2262,17 @@
       <c r="B37" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="9">
+      <c r="C37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="9">
         <v>4</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
@@ -2275,16 +2285,16 @@
         <v>66</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="9">
+        <v>67</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="9">
         <v>4.5</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
@@ -2296,17 +2306,17 @@
       <c r="B39" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="9">
+      <c r="C39" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="9">
         <v>3.5</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
@@ -2318,17 +2328,17 @@
       <c r="B40" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="9">
+      <c r="C40" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="9">
         <v>5</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
@@ -2340,17 +2350,17 @@
       <c r="B41" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="9">
+      <c r="C41" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="9">
         <v>4</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
@@ -2363,16 +2373,16 @@
         <v>74</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="9">
+        <v>29</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="9">
         <v>4</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
@@ -2385,16 +2395,16 @@
         <v>75</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="9">
+        <v>76</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="9">
         <v>3</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
@@ -2406,17 +2416,17 @@
       <c r="B44" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="9">
+      <c r="C44" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="9">
         <v>4</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
@@ -2428,17 +2438,17 @@
       <c r="B45" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="9">
+      <c r="C45" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="9">
         <v>5</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
@@ -2450,17 +2460,17 @@
       <c r="B46" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="9">
+      <c r="C46" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="9">
         <v>3</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
@@ -2472,17 +2482,17 @@
       <c r="B47" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="9">
+      <c r="C47" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="9">
         <v>3</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
@@ -2494,17 +2504,17 @@
       <c r="B48" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="9">
+      <c r="C48" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="9">
         <v>3.5</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
@@ -2516,17 +2526,17 @@
       <c r="B49" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="9">
+      <c r="C49" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="9">
         <v>3.5</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
@@ -2538,17 +2548,17 @@
       <c r="B50" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="9">
+      <c r="C50" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="9">
         <v>3</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
@@ -2560,17 +2570,17 @@
       <c r="B51" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C51" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="9">
+      <c r="C51" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="9">
         <v>3.5</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
@@ -2583,16 +2593,16 @@
         <v>88</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" s="9">
+        <v>89</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="9">
         <v>3.5</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
@@ -2605,16 +2615,16 @@
         <v>90</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="9">
+        <v>91</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="9">
         <v>4</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
@@ -2626,17 +2636,17 @@
       <c r="B54" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C54" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" s="9">
+      <c r="C54" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="9">
         <v>3</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
@@ -2648,17 +2658,17 @@
       <c r="B55" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="9">
+      <c r="C55" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="9">
         <v>4</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
@@ -2671,16 +2681,16 @@
         <v>94</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="9">
+        <v>29</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="9">
         <v>4</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
@@ -2692,17 +2702,17 @@
       <c r="B57" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C57" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" s="9">
+      <c r="C57" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="9">
         <v>4</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
@@ -2714,17 +2724,17 @@
       <c r="B58" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C58" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58" s="9">
+      <c r="C58" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="9">
         <v>3.5</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
@@ -2737,16 +2747,16 @@
         <v>98</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" s="9">
+        <v>29</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="9">
         <v>4</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
@@ -2759,16 +2769,16 @@
         <v>99</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" s="9">
+        <v>29</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="9">
         <v>4</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
@@ -2780,17 +2790,17 @@
       <c r="B61" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C61" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" s="9">
+      <c r="C61" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="9">
         <v>3</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
@@ -2803,16 +2813,16 @@
         <v>101</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62" s="9">
+        <v>91</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="9">
         <v>5</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
@@ -2824,17 +2834,17 @@
       <c r="B63" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C63" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" s="9">
+      <c r="C63" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="9">
         <v>3</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
@@ -2846,17 +2856,17 @@
       <c r="B64" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C64" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64" s="9">
+      <c r="C64" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="9">
         <v>3</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
@@ -2869,16 +2879,16 @@
         <v>105</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65" s="10">
+        <v>29</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="11">
         <v>3</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
@@ -2891,16 +2901,16 @@
         <v>107</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D66" s="9">
+        <v>27</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="9">
         <v>3</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
@@ -2913,16 +2923,16 @@
         <v>108</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" s="9">
+        <v>27</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="9">
         <v>3</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
@@ -2935,16 +2945,16 @@
         <v>109</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68" s="9">
+        <v>27</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="9">
         <v>3</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
@@ -2957,16 +2967,16 @@
         <v>110</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" s="9">
+        <v>27</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="9">
         <v>3</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
@@ -2979,16 +2989,16 @@
         <v>111</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70" s="9">
+        <v>27</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="9">
         <v>3</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
@@ -3001,16 +3011,16 @@
         <v>112</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" s="9">
+        <v>27</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="9">
         <v>3</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
@@ -3023,16 +3033,16 @@
         <v>113</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D72" s="9">
+        <v>114</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="9">
         <v>6</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>115</v>
       </c>
       <c r="G72" s="8"/>
       <c r="H72" s="8" t="s">
@@ -3046,17 +3056,17 @@
       <c r="B73" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C73" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73" s="10">
+      <c r="C73" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="11">
         <v>5</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="G73" s="7"/>
       <c r="H73" s="7" t="s">
@@ -3070,17 +3080,17 @@
       <c r="B74" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C74" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74" s="10">
+      <c r="C74" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="11">
         <v>4</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="G74" s="7"/>
       <c r="H74" s="7" t="s">
@@ -3094,17 +3104,17 @@
       <c r="B75" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C75" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75" s="10">
+      <c r="C75" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="11">
         <v>3.5</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="G75" s="7"/>
       <c r="H75" s="7" t="s">
@@ -3118,17 +3128,17 @@
       <c r="B76" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C76" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D76" s="10">
+      <c r="C76" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="11">
         <v>3</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="G76" s="7"/>
       <c r="H76" s="7" t="s">
@@ -3142,17 +3152,17 @@
       <c r="B77" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C77" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" s="10">
+      <c r="C77" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="11">
         <v>3</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="G77" s="7"/>
       <c r="H77" s="7" t="s">
@@ -3166,17 +3176,17 @@
       <c r="B78" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C78" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" s="10">
+      <c r="C78" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="11">
         <v>3</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="G78" s="7"/>
       <c r="H78" s="7" t="s">
@@ -3190,17 +3200,17 @@
       <c r="B79" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C79" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" s="10">
+      <c r="C79" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="11">
         <v>3</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="G79" s="7"/>
       <c r="H79" s="7" t="s">
